--- a/data/PW010.xlsx
+++ b/data/PW010.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Location</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>Rice</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -61,7 +64,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>01/30/2017</t>
+    <t>White Rice ($0.49)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
   </si>
   <si>
     <t>12:00 PM</t>
@@ -73,16 +82,13 @@
     <t>susan</t>
   </si>
   <si>
-    <t>murugeshwari.subbaraman+301@saggezza.com</t>
+    <t>sudharsan.kg@saggezza.com</t>
   </si>
   <si>
     <t>1234567890</t>
   </si>
   <si>
     <t>45632</t>
-  </si>
-  <si>
-    <t>sudharsan.kg@saggezza.com</t>
   </si>
   <si>
     <t>sudharsan@27</t>
@@ -226,15 +232,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -320,28 +326,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.73979591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.9948979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.8775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.8622448979592"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.4183673469388"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.1173469387755"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.9489795918367"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.015306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.73979591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.9948979591837"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.8775510204082"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.8622448979592"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.4183673469388"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="35.1173469387755"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.9489795918367"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.015306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -352,10 +359,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -375,69 +382,74 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="G2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="I2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="8" t="str">
-        <f aca="false">TEXT(D2,"mmmm dd")</f>
-        <v>January 30</v>
-      </c>
-      <c r="L2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="7" t="str">
+        <f aca="false">TEXT(E2,"mmmm d")</f>
+        <v>March 3</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>23</v>
+      <c r="N2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="murugeshwari.subbaraman+301@saggezza.com"/>
-    <hyperlink ref="L2" r:id="rId2" display="sudharsan.kg@saggezza.com"/>
-    <hyperlink ref="M2" r:id="rId3" display="sudharsan@27"/>
+    <hyperlink ref="M2" r:id="rId1" display="sudharsan.kg@saggezza.com"/>
+    <hyperlink ref="N2" r:id="rId2" display="sudharsan@27"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
